--- a/docs/write.mdJSON_Dictionary_Template.xlsx
+++ b/docs/write.mdJSON_Dictionary_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/xlsx-to-mdJSON-dictionary/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\OneDrive - DOI\Data_management\mdEditor\write-mdJSON-dictionary\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995633FA-61E2-7B40-8A36-33C53E45B993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24080" windowHeight="11200" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="24084" windowHeight="11196" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -21,15 +20,15 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$N$587</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$N$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$M$587</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$N$53</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="110">
   <si>
     <t>Year</t>
   </si>
@@ -353,9 +352,6 @@
   </si>
   <si>
     <t>Indicates if the content of the data set is encoded in case-sensitive ASCII (yes/no)</t>
-  </si>
-  <si>
-    <t>Whether the attribute should be associated with a domain (yes/no); an identifier will be created later</t>
   </si>
   <si>
     <t>A descriptive name associated with the Domain Item value; Default is to use the Domain Item Value; rows regarding attributes are 'colname'</t>
@@ -367,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1190,31 +1186,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M550"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1249,27 +1244,24 @@
         <v>50</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:N587" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M587">
+  <autoFilter ref="A1:M587">
+    <sortState ref="A2:M587">
       <sortCondition ref="J1:J587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1277,13 +1269,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:L1048576</xm:sqref>
+          <xm:sqref>J2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
@@ -1296,23 +1288,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1353,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1373,7 +1365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1388,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1405,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1447,7 +1439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1473,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1515,7 +1507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1532,7 +1524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1583,7 +1575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1609,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1643,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1660,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1685,7 +1677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1719,7 +1711,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1753,7 +1745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1770,7 +1762,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +1796,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1821,7 +1813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1855,7 +1847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1872,7 +1864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1889,7 +1881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1906,7 +1898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1923,7 +1915,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1940,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1957,7 +1949,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1974,7 +1966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1991,7 +1983,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2008,7 +2000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2025,7 +2017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2034,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2059,7 +2051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2068,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2090,13 +2082,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2110,13 +2102,13 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2136,7 +2128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2156,7 +2148,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2176,7 +2168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2196,7 +2188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2216,7 +2208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2236,7 +2228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2256,12 +2248,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>52</v>
@@ -2270,40 +2262,20 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="J53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" t="s">
-        <v>63</v>
-      </c>
-      <c r="J54" t="s">
-        <v>103</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N54" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M587">
+  <autoFilter ref="A1:N53">
+    <sortState ref="A2:M587">
       <sortCondition ref="J1:J587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2311,23 +2283,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>validation_values!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>J54:J1048576 K2:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>validation_values!$B$1:$B$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:L1048576 J55:J1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'/Users/hdvincelette/Desktop/C:\Users\hvincelette\OneDrive - DOI\Data_management\Project_maintenance\Reformatted_data\Banding\[Banding_Dictionary.xlsx]validation_values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J54</xm:sqref>
+          <xm:sqref>J2:J53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2336,16 +2308,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2353,7 +2325,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2361,202 +2333,202 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2568,12 +2540,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2786,15 +2755,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2819,18 +2800,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/write.mdJSON_Dictionary_Template.xlsx
+++ b/docs/write.mdJSON_Dictionary_Template.xlsx
@@ -1,34 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\OneDrive - DOI\Data_management\mdEditor\write-mdJSON-dictionary\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/write-mdJSON-dictionary/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20224B6B-FE62-8C44-82E7-844A55EEF8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="24084" windowHeight="11196" tabRatio="747"/>
+    <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="template_dictionary" sheetId="6" r:id="rId2"/>
     <sheet name="validation_values" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$M$587</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$N$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$M$53</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
   <si>
     <t>Year</t>
   </si>
@@ -187,9 +185,6 @@
   </si>
   <si>
     <t>colname</t>
-  </si>
-  <si>
-    <t>domainId</t>
   </si>
   <si>
     <t>domainItem_name</t>
@@ -363,7 +358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -909,19 +904,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="validation_values"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,59 +1168,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>50</v>
@@ -1247,21 +1227,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:M587">
-    <sortState ref="A2:M587">
-      <sortCondition ref="J1:J587"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M587" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1269,17 +1245,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>validation_values!$A$1:$A$62</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>validation_values!$A$1:$A$62</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>K2:K1048576 F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1288,175 +1264,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1464,842 +1440,706 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
         <v>52</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-      <c r="J44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" t="s">
-        <v>109</v>
-      </c>
-      <c r="J45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
       </c>
       <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
         <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
       </c>
       <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
         <v>52</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
-      </c>
-      <c r="J48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
-      </c>
-      <c r="E49" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
         <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>61</v>
-      </c>
-      <c r="J50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
-      </c>
-      <c r="J51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
-      </c>
-      <c r="J52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
-      </c>
-      <c r="J53" t="s">
-        <v>103</v>
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N53">
-    <sortState ref="A2:M587">
-      <sortCondition ref="J1:J587"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M53" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H52:H1048576 H2:H51" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>J54:J1048576 K2:L1048576</xm:sqref>
+          <xm:sqref>F1:F51 F52:F1048576 K1:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'/Users/hdvincelette/Desktop/C:\Users\hvincelette\OneDrive - DOI\Data_management\Project_maintenance\Reformatted_data\Banding\[Banding_Dictionary.xlsx]validation_values'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J53</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2308,227 +2148,227 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2540,12 +2380,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2754,16 +2603,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2780,7 +2628,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2797,12 +2645,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/write.mdJSON_Dictionary_Template.xlsx
+++ b/docs/write.mdJSON_Dictionary_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/write-mdJSON-dictionary/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20224B6B-FE62-8C44-82E7-844A55EEF8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC580F0-D886-1F4E-A989-E98B8A413FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1171,7 +1171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L550"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1255,7 +1257,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576 F1:F1048576</xm:sqref>
+          <xm:sqref>K2:K1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1268,7 +1270,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2133,13 +2135,13 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F51 F52:F1048576 K1:K1048576</xm:sqref>
+          <xm:sqref>K2:K1048576 F52:F1048576 F2:F51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/write.mdJSON_Dictionary_Template.xlsx
+++ b/docs/write.mdJSON_Dictionary_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/write-mdJSON-dictionary/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC580F0-D886-1F4E-A989-E98B8A413FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871B016F-D779-134D-BD2F-E7EC6F2AB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,18 +205,9 @@
     <t>The smallest unit increment to which an attribute value is measured.</t>
   </si>
   <si>
-    <t>The minimum range value permissible for this attribute. The minimum value may be either numeric or character.</t>
-  </si>
-  <si>
-    <t>The maximum range value permissible for this attribute. The maximum value may be either numeric or character.</t>
-  </si>
-  <si>
     <t>A succinct but comprehensive definition for the attribute or Domain Item</t>
   </si>
   <si>
-    <t>Anything entered here will be excluded from the JSON dictionary</t>
-  </si>
-  <si>
     <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name.</t>
   </si>
   <si>
@@ -353,6 +344,15 @@
   </si>
   <si>
     <t>The Domain Item value; the value in the table; rows regarding attributes are 'colname'</t>
+  </si>
+  <si>
+    <t>The maximum range value permissible for this attribute; this may be numeric or character.</t>
+  </si>
+  <si>
+    <t>The minimum range value permissible for this attribute; the may be numeric or character.</t>
+  </si>
+  <si>
+    <t>Anything entered here will be excluded from the mdJSON dictionary</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:L550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1269,15 +1269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
@@ -1331,13 +1332,13 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1351,13 +1352,13 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1371,13 +1372,13 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1391,13 +1392,13 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1411,13 +1412,13 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1445,7 +1446,7 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1459,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1473,7 +1474,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1487,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1501,7 +1502,7 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1529,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1543,7 +1544,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1557,7 +1558,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1571,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1585,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1599,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1613,7 +1614,7 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1627,7 +1628,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1641,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1655,7 +1656,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1669,7 +1670,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1683,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1697,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1711,7 +1712,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1725,7 +1726,7 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1739,7 +1740,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1753,7 +1754,7 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1767,7 +1768,7 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1781,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1795,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1809,7 +1810,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1823,7 +1824,7 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1837,7 +1838,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1851,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1879,7 +1880,7 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1893,7 +1894,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1907,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1921,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1935,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1949,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1963,7 +1964,7 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1977,7 +1978,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1991,13 +1992,13 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2011,13 +2012,13 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
         <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2037,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2051,13 +2052,13 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
         <v>51</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2071,13 +2072,13 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2091,13 +2092,13 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2111,13 +2112,13 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2172,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2382,21 +2383,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2605,10 +2591,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2631,20 +2643,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/write.mdJSON_Dictionary_Template.xlsx
+++ b/docs/write.mdJSON_Dictionary_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/write-mdJSON-dictionary/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871B016F-D779-134D-BD2F-E7EC6F2AB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9BFE2-4712-6B40-A260-ABDA9BA39671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -346,13 +346,13 @@
     <t>The Domain Item value; the value in the table; rows regarding attributes are 'colname'</t>
   </si>
   <si>
-    <t>The maximum range value permissible for this attribute; this may be numeric or character.</t>
-  </si>
-  <si>
-    <t>The minimum range value permissible for this attribute; the may be numeric or character.</t>
-  </si>
-  <si>
     <t>Anything entered here will be excluded from the mdJSON dictionary</t>
+  </si>
+  <si>
+    <t>The minimum range value permissible for this attribute; this may be a numeric or character.</t>
+  </si>
+  <si>
+    <t>The maximum range value permissible for this attribute; this may be a numeric or character.</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L550"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2072,7 +2072,7 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>51</v>
@@ -2112,7 +2112,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
@@ -2592,18 +2592,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2626,6 +2626,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2640,12 +2648,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/write.mdJSON_Dictionary_Template.xlsx
+++ b/docs/write.mdJSON_Dictionary_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/write-mdJSON-dictionary/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9BFE2-4712-6B40-A260-ABDA9BA39671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3CA9F0-8403-974F-B2B6-F3D17C18DF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L550"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1269,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -2383,6 +2383,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2591,22 +2606,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2623,29 +2648,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/write.mdJSON_Dictionary_Template.xlsx
+++ b/docs/write.mdJSON_Dictionary_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/write-mdJSON-dictionary/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3CA9F0-8403-974F-B2B6-F3D17C18DF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86B419-5106-534B-971F-8C09BCC0CC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:L550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2383,21 +2383,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2606,32 +2591,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2648,4 +2623,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>